--- a/data/trans_dic/P2404-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2404-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2404-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2404-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>3,57; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>3,64; 7,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>3,81; 8,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>1,68; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,69; 3,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,51; 3,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>2,98; 5,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,52; 4,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,48; 5,16</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,5; 6,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,62; 8,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>2,47; 5,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>1,44; 4,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,16; 1,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>1,14; 3,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,84; 4,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,63; 4,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,22; 4,2</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,3; 2,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,66; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,55; 4,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,27; 1,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,13; 1,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,14; 1,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,6; 1,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,01; 2,34</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,2; 1,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,98; 4,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0,2; 1,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,29; 1,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,08; 0,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,93; 2,46</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0; 0,15</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>1,8; 2,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,83; 3,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,0; 3,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,65; 1,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,28; 0,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,42; 1,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,29; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,16; 1,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,28; 1,91</t>
         </is>
       </c>
     </row>
